--- a/3DGame202509/その他作業/9月作品展示会コスト表.xlsx
+++ b/3DGame202509/その他作業/9月作品展示会コスト表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\藤原 冬志\Desktop\GitHub\3DGame202509\3DGame202509\その他作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D119C334-D2A8-4FC6-8CC7-522F44CE293D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832861CE-7CEE-430D-B164-2239AADEAE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="1515" windowWidth="25605" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="1800" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="102">
   <si>
     <t>優先度</t>
     <rPh sb="0" eb="3">
@@ -177,6 +178,398 @@
     <rPh sb="0" eb="2">
       <t>カイヒ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI素材</t>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>球と球</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球とカプセル</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセルとカプセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>待機</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発見</t>
+    <rPh sb="0" eb="2">
+      <t>ハッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルファ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実コスト</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クラス設計</t>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ライブラリ設計</t>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アルファ素材集め</t>
+    <rPh sb="5" eb="7">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　UI素材</t>
+    <rPh sb="5" eb="7">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　キャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・当たり判定</t>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　－　球と球の当たり判定</t>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　待機</t>
+    <rPh sb="3" eb="5">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　－　被弾</t>
+    <rPh sb="3" eb="5">
+      <t>ヒダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　－　死亡</t>
+    <rPh sb="3" eb="5">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エネミーbase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　発見</t>
+    <rPh sb="3" eb="5">
+      <t>ハッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　死亡</t>
+    <rPh sb="3" eb="5">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　攻撃</t>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　被弾</t>
+    <rPh sb="3" eb="5">
+      <t>ヒダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　死亡演出</t>
+    <rPh sb="3" eb="7">
+      <t>シボウエンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>・マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　－　マップスクロール(生成)</t>
+    <rPh sb="12" eb="14">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　－　マップ設計</t>
+  </si>
+  <si>
+    <t>　ー　配置データの保存</t>
+  </si>
+  <si>
+    <t>　ー　配置データの読み込み</t>
+  </si>
+  <si>
+    <t>　ー　マップ実装</t>
+  </si>
+  <si>
+    <t>・音処理</t>
+    <rPh sb="1" eb="4">
+      <t>オトショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　BGM再生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　SE再生</t>
+  </si>
+  <si>
+    <t>　ー　音量調整の処理</t>
+  </si>
+  <si>
+    <t>　ー　音実装</t>
+  </si>
+  <si>
+    <t>・UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　タイトル画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　ゲーム画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　オプション画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・UX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　カーソル移動</t>
+  </si>
+  <si>
+    <t>　ー　決定処理</t>
+  </si>
+  <si>
+    <t>　ー　画面遷移</t>
+  </si>
+  <si>
+    <t>　ー　プレイヤー操作</t>
+  </si>
+  <si>
+    <t>・エフェクト</t>
+  </si>
+  <si>
+    <t>　ー　エフェクト再生</t>
+  </si>
+  <si>
+    <t>　ー　エフェクト停止</t>
+  </si>
+  <si>
+    <t>　ー　座標回転と拡大</t>
+  </si>
+  <si>
+    <t>　ー　エフェクト実装</t>
+  </si>
+  <si>
+    <t>・ビルドテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスター</t>
+  </si>
+  <si>
+    <t>　ー　球とカプセル</t>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　カプセルとカプセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　3段攻撃</t>
+    <rPh sb="4" eb="7">
+      <t>ダンコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　強攻撃</t>
+    <rPh sb="3" eb="6">
+      <t>キョウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　－　必殺技</t>
+    <rPh sb="3" eb="6">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・雑魚3種</t>
+    <rPh sb="1" eb="3">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　リザルト画面</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -184,7 +577,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +618,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +654,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -374,6 +810,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -656,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J17"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -693,20 +1150,22 @@
         <v>8</v>
       </c>
       <c r="I2">
-        <f>SUBTOTAL(9,F3:F17)</f>
-        <v>15</v>
+        <f>SUBTOTAL(9,F3:F29)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -718,14 +1177,16 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -733,19 +1194,20 @@
       <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -753,19 +1215,20 @@
       <c r="G5" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -773,19 +1236,20 @@
       <c r="G6" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -793,16 +1257,17 @@
       <c r="G7" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>4</v>
@@ -816,10 +1281,10 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>3</v>
@@ -836,10 +1301,10 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>3</v>
@@ -856,9 +1321,11 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
@@ -874,9 +1341,11 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="9" t="s">
         <v>3</v>
       </c>
@@ -892,9 +1361,11 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="D13" s="9" t="s">
         <v>3</v>
       </c>
@@ -910,11 +1381,13 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>4</v>
@@ -925,15 +1398,16 @@
       <c r="G14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>4</v>
@@ -947,9 +1421,11 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
@@ -963,11 +1439,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:9">
       <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
@@ -978,22 +1456,1109 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="7"/>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="7"/>
+      <c r="C19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="7"/>
+      <c r="C20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="7"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="7"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="7"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{C978D8BA-25F1-4737-8CF1-8985E6B70CD1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E29" xr:uid="{3C563ADF-E4DF-49AC-99CF-84C7F0D3C66C}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D17" xr:uid="{FBFED094-626C-4281-939A-64FDD3692CC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D29" xr:uid="{C2882D54-6462-4AB8-B49C-2A2535D5CB5C}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G17" xr:uid="{E16B62BF-1816-45AB-A14B-316C97E2CA8A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G29" xr:uid="{E16B62BF-1816-45AB-A14B-316C97E2CA8A}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EBD717-8DEC-4580-ACAD-6661EE4FBE57}">
+  <dimension ref="B2:G64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="9" style="13"/>
+    <col min="4" max="4" width="10.625" style="13" customWidth="1"/>
+    <col min="5" max="7" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D64" xr:uid="{8EDF565C-59EA-42F4-A6D5-C8CB056BBD4D}">
+      <formula1>"プロト,α,β,マスター"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C64" xr:uid="{3CB77063-16AC-4160-B919-00163F6175CB}">
+      <formula1>"S,A,B,C"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3DGame202509/その他作業/9月作品展示会コスト表.xlsx
+++ b/3DGame202509/その他作業/9月作品展示会コスト表.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\藤原 冬志\Desktop\GitHub\3DGame202509\3DGame202509\その他作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832861CE-7CEE-430D-B164-2239AADEAE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BE8DCA-2FDC-4A1E-AE6B-EE567AF32C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="1800" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="105">
   <si>
     <t>優先度</t>
     <rPh sb="0" eb="3">
@@ -331,22 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　－　球と球の当たり判定</t>
-    <rPh sb="3" eb="4">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・プレイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -434,13 +421,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　－　マップスクロール(生成)</t>
-    <rPh sb="12" eb="14">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　－　マップ設計</t>
   </si>
   <si>
@@ -571,6 +551,33 @@
   <si>
     <t>　ー　リザルト画面</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　球と球</t>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　歩き</t>
+    <rPh sb="3" eb="4">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　ダッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業中</t>
+  </si>
+  <si>
+    <t>完了</t>
   </si>
 </sst>
 </file>
@@ -812,10 +819,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -831,6 +834,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1116,7 +1125,7 @@
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1649,915 +1658,1045 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EBD717-8DEC-4580-ACAD-6661EE4FBE57}">
   <dimension ref="B2:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="9" style="13"/>
-    <col min="4" max="4" width="10.625" style="13" customWidth="1"/>
-    <col min="5" max="7" width="9" style="13"/>
+    <col min="3" max="3" width="12.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="C11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+        <v>93</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="B15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+        <v>97</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="C25" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="D28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="B30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="B31" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="20" t="s">
+      <c r="C34" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="20" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="C39" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+        <v>70</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
+      <c r="D44" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
+      <c r="D45" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
+      <c r="D46" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
+      <c r="D47" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
+      <c r="D48" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="20" t="s">
+      <c r="B49" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
+      <c r="D49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
+      <c r="D54" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
+      <c r="D55" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="20"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
+      <c r="D59" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
+      <c r="D60" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
+      <c r="D61" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="D62" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C2:G2" xr:uid="{28EBD717-8DEC-4580-ACAD-6661EE4FBE57}"/>
   <phoneticPr fontId="1"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D64" xr:uid="{8EDF565C-59EA-42F4-A6D5-C8CB056BBD4D}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C64" xr:uid="{3CB77063-16AC-4160-B919-00163F6175CB}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G64" xr:uid="{817CDF72-0507-4505-8CA5-C34EBACB03D1}">
+      <formula1>"未着手,作業中,完了"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3DGame202509/その他作業/9月作品展示会コスト表.xlsx
+++ b/3DGame202509/その他作業/9月作品展示会コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\藤原 冬志\Desktop\GitHub\3DGame202509\3DGame202509\その他作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199EF225-8395-48A2-96C6-EB149AE1876A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEC00A2-BDA6-4623-8ED0-F373F899A367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -596,8 +596,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -750,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -780,14 +780,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1070,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDF2A34-B485-431F-AEEF-D86631CD0E7E}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1096,7 +1095,7 @@
       </c>
       <c r="C3">
         <f>SUMIF(コスト表!F3:F85,"完了",コスト表!E3:E85)</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -1106,13 +1105,13 @@
       <c r="B4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="16">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1130,7 +1129,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45813</v>
+        <v>45814</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1151,11 +1150,11 @@
       </c>
       <c r="D9" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="16">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>1.5928571428571427</v>
+        <v>1.6102941176470589</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1168,11 +1167,11 @@
       </c>
       <c r="D10" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="16">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.3273809523809523</v>
+        <v>1.3353658536585367</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1185,11 +1184,11 @@
       </c>
       <c r="D11" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="16">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>0.97807017543859653</v>
+        <v>0.9776785714285714</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1252,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EBD717-8DEC-4580-ACAD-6661EE4FBE57}">
   <dimension ref="B2:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1688,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:6">
